--- a/SpaOnline/ModeloDominio/Fabricante - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Fabricante - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD53131-B18C-4B9C-848A-96D27B669440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE73C26-8A68-4FBE-A7F8-938C1F9C6216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
     <t>Lubridem</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de las empresas que fabrican marcas de productos de tecnologia</t>
+    <t>Objeto de dominio que contiene la informacion de las empresas que fabrican marcas de productos que tulizan los Spa.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
